--- a/doc/log/log_201608040216_zhangshuaiyin.xlsx
+++ b/doc/log/log_201608040216_zhangshuaiyin.xlsx
@@ -1,28 +1,96 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="日志" sheetId="1" r:id="rId1"/>
+    <sheet name="周报" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="145621"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题与后续计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题与后续计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.5.12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束环境配置及连接远程仓库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -46,19 +114,39 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -68,44 +156,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -135,12 +223,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -179,201 +267,233 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="26.375" customWidth="1"/>
+    <col min="4" max="4" width="11.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="24.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="19.5" customWidth="1"/>
+    <col min="4" max="4" width="26.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/doc/log/log_201608040216_zhangshuaiyin.xlsx
+++ b/doc/log/log_201608040216_zhangshuaiyin.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,6 +71,22 @@
   </si>
   <si>
     <t>完成测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.5.13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置maven连接eclipse自动生成eclipse文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试类</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -400,7 +416,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -408,17 +424,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="26.375" customWidth="1"/>
+    <col min="3" max="3" width="48.125" customWidth="1"/>
     <col min="4" max="4" width="11.375" style="2" customWidth="1"/>
     <col min="5" max="5" width="24.875" customWidth="1"/>
   </cols>
@@ -455,6 +471,23 @@
       </c>
       <c r="E2" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/doc/log/log_201608040216_zhangshuaiyin.xlsx
+++ b/doc/log/log_201608040216_zhangshuaiyin.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,6 +87,22 @@
   </si>
   <si>
     <t>测试类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.5.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行实体类的测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善测试类</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -416,7 +432,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -424,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -488,6 +504,23 @@
       </c>
       <c r="E3" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.72013888888888899</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/doc/log/log_201608040216_zhangshuaiyin.xlsx
+++ b/doc/log/log_201608040216_zhangshuaiyin.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,6 +103,63 @@
   </si>
   <si>
     <t>完善测试类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.5.16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.5.17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">RoleManagerImpl\UserManagerImpl
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日志修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.5.31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>web.xml/spring-servlet.xml配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上机测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.6.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>web-staff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -146,7 +203,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -159,6 +216,9 @@
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -440,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -521,6 +581,68 @@
       </c>
       <c r="E4" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/doc/log/log_201608040216_zhangshuaiyin.xlsx
+++ b/doc/log/log_201608040216_zhangshuaiyin.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -151,15 +151,95 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>web-staff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>完善功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.6.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>service-staff完善测试代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.6.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update for log4j2 and jetty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善service层代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.6.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>web层controller，service测试，persistence.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.6.14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善web-inf/js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>web-staff完善</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.5.17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>web-pom更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>service层impl更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>web.xml配置，web代码实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善service</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现web层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置web</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新日志</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -500,10 +580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -599,50 +679,177 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B8" s="4">
         <v>0.72222222222222221</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C8" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>26</v>
+      </c>
+      <c r="E8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0.88194444444444453</v>
+      </c>
+      <c r="C9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B11" s="4">
-        <v>0.75694444444444453</v>
+        <v>0.75</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B12" s="4">
-        <v>0.75</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0.72013888888888899</v>
+      </c>
+      <c r="C14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="4">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="4">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/doc/log/log_201608040216_zhangshuaiyin.xlsx
+++ b/doc/log/log_201608040216_zhangshuaiyin.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="74">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -240,6 +240,79 @@
   </si>
   <si>
     <t>更新日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课设</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原计划</t>
+  </si>
+  <si>
+    <t>执行情况</t>
+  </si>
+  <si>
+    <t>问题与后续计划</t>
+  </si>
+  <si>
+    <t>第一天1:00-4:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习Jenkins的使用以及相关知识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正在进行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进一步熟悉Jenkins</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二天1:00-4:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熟悉Jenkins 配置流程 构建等操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三天1:00-4:31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第四天1:00-4:32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第五天1:00-4:33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第六天1:00-4:34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第七天1:00-4:35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.6.21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.6.19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.6.20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -283,7 +356,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -299,6 +372,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -572,7 +648,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -580,19 +656,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="48.125" customWidth="1"/>
+    <col min="1" max="1" width="17.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="45" customWidth="1"/>
     <col min="4" max="4" width="11.375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="24.875" customWidth="1"/>
+    <col min="5" max="5" width="35.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -851,6 +927,90 @@
       <c r="D16" s="2" t="s">
         <v>36</v>
       </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/doc/log/log_201608040216_zhangshuaiyin.xlsx
+++ b/doc/log/log_201608040216_zhangshuaiyin.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="75">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -313,13 +313,17 @@
   </si>
   <si>
     <t>2018.6.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总体架构说明书</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -648,7 +652,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -975,7 +979,9 @@
       <c r="D19" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E19" s="2"/>
+      <c r="E19" s="2" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">

--- a/doc/log/log_201608040216_zhangshuaiyin.xlsx
+++ b/doc/log/log_201608040216_zhangshuaiyin.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="80">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -317,6 +317,26 @@
   </si>
   <si>
     <t>总体架构说明书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.6.22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写总体架构说明书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善总体架构说明书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善总体架构说明书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -663,7 +683,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -977,7 +997,7 @@
         <v>64</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>74</v>
@@ -990,14 +1010,29 @@
       <c r="B20" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="E20" s="2"/>
+      <c r="C20" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="B21" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="6"/>
+      <c r="C21" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">

--- a/doc/log/log_201608040216_zhangshuaiyin.xlsx
+++ b/doc/log/log_201608040216_zhangshuaiyin.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="91">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -243,10 +243,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>课设</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>原计划</t>
   </si>
   <si>
@@ -256,10 +252,6 @@
     <t>问题与后续计划</t>
   </si>
   <si>
-    <t>第一天1:00-4:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>学习Jenkins的使用以及相关知识</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -272,34 +264,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>第二天1:00-4:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>熟悉Jenkins 配置流程 构建等操作</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>第三天1:00-4:31</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第四天1:00-4:32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第五天1:00-4:33</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第六天1:00-4:34</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第七天1:00-4:35</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -336,7 +304,83 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>周二1:00-4:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周三1:00-4:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周四1:00-4:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周五1:00-4:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周一1:00-4:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周二1:00-4:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.6.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.6.26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.6.27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.6.28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.6.29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加代码注释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.7.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.7.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.7.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.7.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.7.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正在进行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为实体类加注释</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -380,7 +424,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -400,6 +444,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -680,10 +725,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -954,104 +999,199 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="E18" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>74</v>
+      <c r="E19" s="7" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>77</v>
+        <v>59</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="6"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C21" s="6" t="s">
+      <c r="C22" s="6"/>
+      <c r="D22" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="B23" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E23" s="6"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B22" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C22" s="2"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B23" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C23" s="2"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C24" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="E24" s="6"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="E25" s="6"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="E26" s="6"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="E27" s="6"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="E28" s="6"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="E29" s="6"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="E30" s="6"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="E31" s="6"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E32" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
